--- a/Data/Data dictionary KD.xlsx
+++ b/Data/Data dictionary KD.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="45" windowWidth="14910" windowHeight="14130" activeTab="1"/>
+    <workbookView xWindow="60" yWindow="45" windowWidth="14910" windowHeight="14130" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data key" sheetId="2" r:id="rId1"/>
     <sheet name="Transition Matrix" sheetId="1" r:id="rId2"/>
+    <sheet name="Baseline Matrix" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="66">
   <si>
     <t>p.sus</t>
   </si>
@@ -553,7 +554,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -733,11 +734,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q17" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T38" sqref="T38"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25:V45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <f t="shared" ref="U6:U20" si="2">SUM(D6:T6)</f>
+        <f t="shared" ref="U6" si="2">SUM(D6:T6)</f>
         <v>0</v>
       </c>
       <c r="V6" s="12">
@@ -1919,8 +1920,8 @@
       <c r="T17">
         <v>0</v>
       </c>
-      <c r="U17">
-        <v>0</v>
+      <c r="U17" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="V17" s="12" t="s">
         <v>64</v>
@@ -2282,7 +2283,7 @@
         <v>quote(param$POP * (1 - param$TESTSP)),</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" ref="C25:R25" si="3">D2&amp;","</f>
+        <f t="shared" ref="D25:R25" si="3">D2&amp;","</f>
         <v>0,</v>
       </c>
       <c r="E25" t="str">
@@ -2858,7 +2859,7 @@
         <v>0,</v>
       </c>
       <c r="S31" s="12" t="str">
-        <f t="shared" ref="S31:U31" si="22">S8&amp;","</f>
+        <f t="shared" ref="S31:T31" si="22">S8&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T31" s="12" t="str">
@@ -2944,7 +2945,7 @@
         <v>0,</v>
       </c>
       <c r="S32" s="12" t="str">
-        <f t="shared" ref="S32:U32" si="24">S9&amp;","</f>
+        <f t="shared" ref="S32:T32" si="24">S9&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T32" s="12" t="str">
@@ -3134,7 +3135,7 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" t="str">
-        <f t="shared" ref="B35:R35" si="31">B12&amp;","</f>
+        <f t="shared" ref="B35:P35" si="31">B12&amp;","</f>
         <v>0,</v>
       </c>
       <c r="C35" t="str">
@@ -3546,7 +3547,7 @@
         <v>0,</v>
       </c>
       <c r="S39" s="12" t="str">
-        <f t="shared" ref="S39:U39" si="44">S16&amp;","</f>
+        <f t="shared" ref="S39:T39" si="44">S16&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T39" s="12" t="str">
@@ -3564,7 +3565,7 @@
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" t="str">
-        <f t="shared" ref="B40:R40" si="45">B17&amp;","</f>
+        <f t="shared" ref="B40:P40" si="45">B17&amp;","</f>
         <v>0,</v>
       </c>
       <c r="C40" t="str">
@@ -3640,8 +3641,8 @@
         <v>0,</v>
       </c>
       <c r="U40" s="12" t="str">
-        <f t="shared" si="46"/>
-        <v>0,</v>
+        <f>"quote("&amp;U17&amp;"),"</f>
+        <v>quote(param$MR),</v>
       </c>
       <c r="V40" s="12" t="str">
         <f>"quote("&amp;V17&amp;"),"</f>
@@ -3726,7 +3727,7 @@
         <v>quote(param$TBMR),</v>
       </c>
       <c r="U41" s="12" t="str">
-        <f t="shared" ref="S41:U41" si="48">U18&amp;","</f>
+        <f t="shared" ref="U41" si="48">U18&amp;","</f>
         <v>0,</v>
       </c>
       <c r="V41" s="12" t="str">
@@ -3808,7 +3809,7 @@
         <v>quote(CMP),</v>
       </c>
       <c r="T42" s="12" t="str">
-        <f t="shared" ref="S42:U42" si="51">T19&amp;","</f>
+        <f t="shared" ref="T42" si="51">T19&amp;","</f>
         <v>0,</v>
       </c>
       <c r="U42" s="12" t="str">
@@ -3994,7 +3995,7 @@
     </row>
     <row r="45" spans="2:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="str">
-        <f t="shared" ref="B45:U46" si="57">B22&amp;","</f>
+        <f t="shared" ref="B45:U45" si="57">B22&amp;","</f>
         <v>0,</v>
       </c>
       <c r="C45" s="12" t="str">
@@ -4214,4 +4215,3508 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="T44" sqref="T44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="22" style="12" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="28" style="12" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" style="12" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" style="12" customWidth="1"/>
+    <col min="17" max="17" width="29.140625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="37.85546875" style="12" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="12" customWidth="1"/>
+    <col min="20" max="20" width="22.28515625" style="12" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" style="12" customWidth="1"/>
+    <col min="22" max="22" width="24.85546875" style="12" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>1</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0</v>
+      </c>
+      <c r="L2" s="12">
+        <v>0</v>
+      </c>
+      <c r="M2" s="12">
+        <v>0</v>
+      </c>
+      <c r="N2" s="12">
+        <v>0</v>
+      </c>
+      <c r="O2" s="12">
+        <v>0</v>
+      </c>
+      <c r="P2" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>0</v>
+      </c>
+      <c r="R2" s="12">
+        <v>0</v>
+      </c>
+      <c r="S2" s="12">
+        <v>0</v>
+      </c>
+      <c r="T2" s="12">
+        <v>0</v>
+      </c>
+      <c r="U2" s="12">
+        <v>0</v>
+      </c>
+      <c r="V2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0</v>
+      </c>
+      <c r="O3" s="12">
+        <v>0</v>
+      </c>
+      <c r="P3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>0</v>
+      </c>
+      <c r="R3" s="12">
+        <v>0</v>
+      </c>
+      <c r="S3" s="12">
+        <f t="shared" ref="S3:S6" si="0">SUM(B3:R3)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="12">
+        <v>0</v>
+      </c>
+      <c r="U3" s="12">
+        <f t="shared" ref="U3:U4" si="1">SUM(D3:T3)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0</v>
+      </c>
+      <c r="O4" s="12">
+        <v>0</v>
+      </c>
+      <c r="P4" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>0</v>
+      </c>
+      <c r="R4" s="12">
+        <v>0</v>
+      </c>
+      <c r="S4" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="12">
+        <v>0</v>
+      </c>
+      <c r="U4" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0</v>
+      </c>
+      <c r="O5" s="12">
+        <v>0</v>
+      </c>
+      <c r="P5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>0</v>
+      </c>
+      <c r="R5" s="12">
+        <v>0</v>
+      </c>
+      <c r="S5" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="12">
+        <v>0</v>
+      </c>
+      <c r="U5" s="12">
+        <v>0</v>
+      </c>
+      <c r="V5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0</v>
+      </c>
+      <c r="O6" s="12">
+        <v>0</v>
+      </c>
+      <c r="P6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>0</v>
+      </c>
+      <c r="R6" s="12">
+        <v>0</v>
+      </c>
+      <c r="S6" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="12">
+        <v>0</v>
+      </c>
+      <c r="U6" s="12">
+        <f t="shared" ref="U6" si="2">SUM(D6:T6)</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0</v>
+      </c>
+      <c r="O7" s="12">
+        <v>0</v>
+      </c>
+      <c r="P7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>0</v>
+      </c>
+      <c r="R7" s="12">
+        <v>0</v>
+      </c>
+      <c r="S7" s="12">
+        <v>0</v>
+      </c>
+      <c r="T7" s="12">
+        <v>0</v>
+      </c>
+      <c r="U7" s="12">
+        <v>0</v>
+      </c>
+      <c r="V7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0</v>
+      </c>
+      <c r="O8" s="12">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>0</v>
+      </c>
+      <c r="R8" s="12">
+        <v>0</v>
+      </c>
+      <c r="S8" s="12">
+        <v>0</v>
+      </c>
+      <c r="T8" s="12">
+        <v>0</v>
+      </c>
+      <c r="U8" s="12">
+        <v>0</v>
+      </c>
+      <c r="V8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0</v>
+      </c>
+      <c r="O9" s="12">
+        <v>0</v>
+      </c>
+      <c r="P9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>0</v>
+      </c>
+      <c r="R9" s="12">
+        <v>0</v>
+      </c>
+      <c r="S9" s="12">
+        <v>0</v>
+      </c>
+      <c r="T9" s="12">
+        <v>0</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0</v>
+      </c>
+      <c r="O10" s="12">
+        <v>0</v>
+      </c>
+      <c r="P10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>1</v>
+      </c>
+      <c r="R10" s="12">
+        <v>0</v>
+      </c>
+      <c r="S10" s="12">
+        <v>0</v>
+      </c>
+      <c r="T10" s="12">
+        <v>0</v>
+      </c>
+      <c r="U10" s="12">
+        <v>0</v>
+      </c>
+      <c r="V10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0</v>
+      </c>
+      <c r="O11" s="12">
+        <v>0</v>
+      </c>
+      <c r="P11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>0</v>
+      </c>
+      <c r="R11" s="12">
+        <v>0</v>
+      </c>
+      <c r="S11" s="12">
+        <v>0</v>
+      </c>
+      <c r="T11" s="12">
+        <v>0</v>
+      </c>
+      <c r="U11" s="12">
+        <v>0</v>
+      </c>
+      <c r="V11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>0</v>
+      </c>
+      <c r="R12" s="12">
+        <v>0</v>
+      </c>
+      <c r="S12" s="12">
+        <v>0</v>
+      </c>
+      <c r="T12" s="12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="12">
+        <v>0</v>
+      </c>
+      <c r="V12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>0</v>
+      </c>
+      <c r="R13" s="12">
+        <v>0</v>
+      </c>
+      <c r="S13" s="12">
+        <v>0</v>
+      </c>
+      <c r="T13" s="12">
+        <v>0</v>
+      </c>
+      <c r="U13" s="12">
+        <v>0</v>
+      </c>
+      <c r="V13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="12">
+        <v>0</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12">
+        <v>0</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0</v>
+      </c>
+      <c r="O14" s="12">
+        <v>0</v>
+      </c>
+      <c r="P14" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>0</v>
+      </c>
+      <c r="R14" s="12">
+        <v>0</v>
+      </c>
+      <c r="S14" s="12">
+        <v>0</v>
+      </c>
+      <c r="T14" s="12">
+        <v>0</v>
+      </c>
+      <c r="U14" s="12">
+        <v>0</v>
+      </c>
+      <c r="V14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0</v>
+      </c>
+      <c r="M15" s="12">
+        <v>0</v>
+      </c>
+      <c r="N15" s="12">
+        <v>0</v>
+      </c>
+      <c r="O15" s="12">
+        <v>0</v>
+      </c>
+      <c r="P15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>0</v>
+      </c>
+      <c r="R15" s="12">
+        <v>0</v>
+      </c>
+      <c r="S15" s="12">
+        <v>0</v>
+      </c>
+      <c r="T15" s="12">
+        <v>0</v>
+      </c>
+      <c r="U15" s="12">
+        <v>0</v>
+      </c>
+      <c r="V15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0</v>
+      </c>
+      <c r="M16" s="12">
+        <v>0</v>
+      </c>
+      <c r="N16" s="12">
+        <v>0</v>
+      </c>
+      <c r="O16" s="12">
+        <v>0</v>
+      </c>
+      <c r="P16" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>0</v>
+      </c>
+      <c r="R16" s="12">
+        <v>0</v>
+      </c>
+      <c r="S16" s="12">
+        <v>0</v>
+      </c>
+      <c r="T16" s="12">
+        <v>0</v>
+      </c>
+      <c r="U16" s="12">
+        <v>0</v>
+      </c>
+      <c r="V16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0</v>
+      </c>
+      <c r="N17" s="12">
+        <v>0</v>
+      </c>
+      <c r="O17" s="12">
+        <v>0</v>
+      </c>
+      <c r="P17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="S17" s="12">
+        <v>0</v>
+      </c>
+      <c r="T17" s="12">
+        <v>0</v>
+      </c>
+      <c r="U17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="V17" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="12">
+        <v>0</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+      <c r="K18" s="12">
+        <v>0</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0</v>
+      </c>
+      <c r="M18" s="12">
+        <v>0</v>
+      </c>
+      <c r="N18" s="12">
+        <v>0</v>
+      </c>
+      <c r="O18" s="12">
+        <v>0</v>
+      </c>
+      <c r="P18" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>0</v>
+      </c>
+      <c r="R18" s="12">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="U18" s="12">
+        <f>SUM(D18:T18)</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="12">
+        <v>0</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0</v>
+      </c>
+      <c r="M19" s="12">
+        <v>0</v>
+      </c>
+      <c r="N19" s="12">
+        <v>0</v>
+      </c>
+      <c r="O19" s="12">
+        <v>0</v>
+      </c>
+      <c r="P19" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>0</v>
+      </c>
+      <c r="R19" s="12">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T19" s="12">
+        <v>0</v>
+      </c>
+      <c r="U19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="V19" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="12">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+      <c r="K20" s="12">
+        <v>0</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0</v>
+      </c>
+      <c r="M20" s="12">
+        <v>0</v>
+      </c>
+      <c r="N20" s="12">
+        <v>0</v>
+      </c>
+      <c r="O20" s="12">
+        <v>0</v>
+      </c>
+      <c r="P20" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>0</v>
+      </c>
+      <c r="R20" s="12">
+        <v>0</v>
+      </c>
+      <c r="S20" s="12">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>1</v>
+      </c>
+      <c r="U20" s="12">
+        <v>0</v>
+      </c>
+      <c r="V20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12">
+        <v>0</v>
+      </c>
+      <c r="N21" s="12">
+        <v>0</v>
+      </c>
+      <c r="O21" s="12">
+        <v>0</v>
+      </c>
+      <c r="P21" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="12">
+        <v>0</v>
+      </c>
+      <c r="R21" s="12">
+        <v>0</v>
+      </c>
+      <c r="S21" s="12">
+        <v>0</v>
+      </c>
+      <c r="T21" s="12">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>1</v>
+      </c>
+      <c r="V21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="12">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
+        <v>0</v>
+      </c>
+      <c r="M22" s="12">
+        <v>0</v>
+      </c>
+      <c r="N22" s="12">
+        <v>0</v>
+      </c>
+      <c r="O22" s="12">
+        <v>0</v>
+      </c>
+      <c r="P22" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>0</v>
+      </c>
+      <c r="R22" s="12">
+        <v>0</v>
+      </c>
+      <c r="S22" s="12">
+        <v>0</v>
+      </c>
+      <c r="T22" s="12">
+        <v>0</v>
+      </c>
+      <c r="U22" s="12">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="12" t="str">
+        <f>B2&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="C25" s="12" t="str">
+        <f>C2&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="D25" s="12" t="str">
+        <f t="shared" ref="D25:V40" si="3">D2&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="E25" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="F25" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="G25" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="H25" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="I25" s="12" t="str">
+        <f t="shared" ref="B25:R41" si="4">I2&amp;","</f>
+        <v>1,</v>
+      </c>
+      <c r="J25" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="K25" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="L25" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="M25" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="N25" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O25" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="P25" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="Q25" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="R25" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="S25" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="T25" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U25" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V25" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="C26" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="D26" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="E26" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="F26" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="G26" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="H26" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="I26" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="J26" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="K26" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="L26" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="M26" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="N26" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="O26" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="P26" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Q26" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="R26" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="S26" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="T26" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U26" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V26" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="C27" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="D27" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="E27" s="12" t="str">
+        <f t="shared" ref="E27" si="5">E4&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="F27" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="G27" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="H27" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="I27" s="12" t="str">
+        <f t="shared" ref="I27" si="6">I4&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="J27" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="K27" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="L27" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="M27" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="N27" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="O27" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="P27" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Q27" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="R27" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="S27" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="T27" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U27" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V27" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="C28" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="D28" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="E28" s="12" t="str">
+        <f t="shared" ref="E28:F28" si="7">E5&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="F28" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>0,</v>
+      </c>
+      <c r="G28" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="H28" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="I28" s="12" t="str">
+        <f t="shared" ref="I28" si="8">I5&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="J28" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="K28" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="L28" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="M28" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="N28" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="O28" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="P28" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Q28" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="R28" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="S28" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="T28" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U28" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V28" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="C29" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="D29" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="E29" s="12" t="str">
+        <f t="shared" ref="E29:G29" si="9">E6&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="F29" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="G29" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="H29" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="I29" s="12" t="str">
+        <f t="shared" ref="I29" si="10">I6&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="J29" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="K29" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="L29" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="M29" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="N29" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="O29" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="P29" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Q29" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="R29" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="S29" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="T29" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U29" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V29" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="C30" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="D30" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="E30" s="12" t="str">
+        <f t="shared" ref="E30:G30" si="11">E7&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="F30" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>0,</v>
+      </c>
+      <c r="G30" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>0,</v>
+      </c>
+      <c r="H30" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="I30" s="12" t="str">
+        <f t="shared" ref="I30" si="12">I7&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="J30" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="K30" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="L30" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="M30" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="N30" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="O30" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="P30" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Q30" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="R30" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="S30" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="T30" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U30" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V30" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="C31" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="D31" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="E31" s="12" t="str">
+        <f t="shared" ref="E31:H31" si="13">E8&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="F31" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v>0,</v>
+      </c>
+      <c r="G31" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v>0,</v>
+      </c>
+      <c r="H31" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v>0,</v>
+      </c>
+      <c r="I31" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="J31" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="K31" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="L31" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="M31" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="N31" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="O31" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="P31" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Q31" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="R31" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="S31" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="T31" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U31" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V31" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="C32" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="D32" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="E32" s="12" t="str">
+        <f t="shared" ref="E32:F32" si="14">E9&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="F32" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v>0,</v>
+      </c>
+      <c r="G32" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="H32" s="12" t="str">
+        <f t="shared" ref="H32" si="15">H9&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="I32" s="12" t="str">
+        <f>"quote("&amp;I9&amp;"),"</f>
+        <v>quote(CMP),</v>
+      </c>
+      <c r="J32" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="K32" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="L32" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="M32" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="N32" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="O32" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="P32" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Q32" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="R32" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="S32" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="T32" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U32" s="12" t="str">
+        <f>"quote("&amp;U9&amp;"),"</f>
+        <v>quote(param$MR),</v>
+      </c>
+      <c r="V32" s="12" t="str">
+        <f>"quote("&amp;V9&amp;"),"</f>
+        <v>quote(param$EMIGRATE),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="C33" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="D33" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="E33" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="F33" s="12" t="str">
+        <f t="shared" ref="F33" si="16">F10&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="G33" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="H33" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="I33" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="J33" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="K33" s="12" t="str">
+        <f t="shared" ref="K33" si="17">K10&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="L33" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="M33" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="N33" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="O33" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="P33" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Q33" s="12" t="str">
+        <f t="shared" ref="Q33" si="18">Q10&amp;","</f>
+        <v>1,</v>
+      </c>
+      <c r="R33" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="S33" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="T33" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U33" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V33" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="C34" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="D34" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="E34" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="F34" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="G34" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="H34" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="I34" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="J34" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="K34" s="12" t="str">
+        <f t="shared" ref="K34:M34" si="19">K11&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="L34" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v>0,</v>
+      </c>
+      <c r="M34" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v>0,</v>
+      </c>
+      <c r="N34" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="O34" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="P34" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Q34" s="12" t="str">
+        <f t="shared" ref="Q34" si="20">Q11&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="R34" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="S34" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="T34" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U34" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V34" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="C35" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="D35" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="E35" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="F35" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="G35" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="H35" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="I35" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="J35" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="K35" s="12" t="str">
+        <f t="shared" ref="K35:N35" si="21">K12&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="L35" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v>0,</v>
+      </c>
+      <c r="M35" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v>0,</v>
+      </c>
+      <c r="N35" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v>0,</v>
+      </c>
+      <c r="O35" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="P35" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Q35" s="12" t="str">
+        <f t="shared" ref="Q35:R35" si="22">Q12&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="R35" s="12" t="str">
+        <f t="shared" si="22"/>
+        <v>0,</v>
+      </c>
+      <c r="S35" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="T35" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U35" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V35" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="C36" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="D36" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="E36" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="F36" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="G36" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="H36" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="I36" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="J36" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="K36" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="L36" s="12" t="str">
+        <f t="shared" ref="L36:O36" si="23">L13&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="M36" s="12" t="str">
+        <f t="shared" si="23"/>
+        <v>0,</v>
+      </c>
+      <c r="N36" s="12" t="str">
+        <f t="shared" si="23"/>
+        <v>0,</v>
+      </c>
+      <c r="O36" s="12" t="str">
+        <f t="shared" si="23"/>
+        <v>0,</v>
+      </c>
+      <c r="P36" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Q36" s="12" t="str">
+        <f t="shared" ref="Q36:R36" si="24">Q13&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="R36" s="12" t="str">
+        <f t="shared" si="24"/>
+        <v>0,</v>
+      </c>
+      <c r="S36" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="T36" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U36" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V36" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="C37" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="D37" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="E37" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="F37" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="G37" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="H37" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="I37" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="J37" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="K37" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="L37" s="12" t="str">
+        <f t="shared" ref="L37:O37" si="25">L14&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="M37" s="12" t="str">
+        <f t="shared" si="25"/>
+        <v>0,</v>
+      </c>
+      <c r="N37" s="12" t="str">
+        <f t="shared" si="25"/>
+        <v>0,</v>
+      </c>
+      <c r="O37" s="12" t="str">
+        <f t="shared" si="25"/>
+        <v>0,</v>
+      </c>
+      <c r="P37" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Q37" s="12" t="str">
+        <f t="shared" ref="Q37:R37" si="26">Q14&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="R37" s="12" t="str">
+        <f t="shared" si="26"/>
+        <v>0,</v>
+      </c>
+      <c r="S37" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="T37" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U37" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V37" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="C38" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="D38" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="E38" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="F38" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="G38" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="H38" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="I38" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="J38" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="K38" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="L38" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="M38" s="12" t="str">
+        <f t="shared" ref="M38:O38" si="27">M15&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="N38" s="12" t="str">
+        <f t="shared" si="27"/>
+        <v>0,</v>
+      </c>
+      <c r="O38" s="12" t="str">
+        <f t="shared" si="27"/>
+        <v>0,</v>
+      </c>
+      <c r="P38" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Q38" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="R38" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="S38" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="T38" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U38" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V38" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="C39" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="D39" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="E39" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="F39" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="G39" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="H39" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="I39" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="J39" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="K39" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="L39" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="M39" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="N39" s="12" t="str">
+        <f t="shared" ref="N39:P39" si="28">N16&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="O39" s="12" t="str">
+        <f t="shared" si="28"/>
+        <v>0,</v>
+      </c>
+      <c r="P39" s="12" t="str">
+        <f t="shared" si="28"/>
+        <v>0,</v>
+      </c>
+      <c r="Q39" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="R39" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="S39" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="T39" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U39" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V39" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="C40" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="D40" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="E40" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="F40" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="G40" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="H40" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="I40" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="J40" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="K40" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="L40" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="M40" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="N40" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="O40" s="12" t="str">
+        <f t="shared" ref="O40:P40" si="29">O17&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="P40" s="12" t="str">
+        <f t="shared" si="29"/>
+        <v>0,</v>
+      </c>
+      <c r="Q40" s="12" t="str">
+        <f>"quote("&amp;Q17&amp;"),"</f>
+        <v>quote(CMP),</v>
+      </c>
+      <c r="R40" s="12" t="str">
+        <f>"quote("&amp;R17&amp;"),"</f>
+        <v>quote(param$RR),</v>
+      </c>
+      <c r="S40" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="T40" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U40" s="12" t="str">
+        <f>"quote("&amp;U17&amp;"),"</f>
+        <v>quote(param$MR),</v>
+      </c>
+      <c r="V40" s="12" t="str">
+        <f>"quote("&amp;V17&amp;"),"</f>
+        <v>quote(param$EMIGRATE),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="C41" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="D41" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="E41" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="F41" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="G41" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="H41" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="I41" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="J41" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="K41" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="L41" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="M41" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="N41" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="O41" s="12" t="str">
+        <f t="shared" ref="O41:P41" si="30">O18&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="P41" s="12" t="str">
+        <f t="shared" si="30"/>
+        <v>0,</v>
+      </c>
+      <c r="Q41" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="R41" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="S41" s="12" t="str">
+        <f>"quote("&amp;S18&amp;"),"</f>
+        <v>quote(CMP),</v>
+      </c>
+      <c r="T41" s="12" t="str">
+        <f>"quote("&amp;T18&amp;"),"</f>
+        <v>quote(param$TBMR),</v>
+      </c>
+      <c r="U41" s="12" t="str">
+        <f t="shared" ref="U41:V41" si="31">U18&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="V41" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="12" t="str">
+        <f t="shared" ref="B42:R45" si="32">B19&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="C42" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="D42" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="E42" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="F42" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="G42" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="H42" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="I42" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="J42" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="K42" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="L42" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="M42" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="N42" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="O42" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="P42" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="Q42" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="R42" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="S42" s="12" t="str">
+        <f>"quote("&amp;S19&amp;"),"</f>
+        <v>quote(CMP),</v>
+      </c>
+      <c r="T42" s="12" t="str">
+        <f t="shared" ref="T42" si="33">T19&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="U42" s="12" t="str">
+        <f>"quote("&amp;U19&amp;"),"</f>
+        <v>quote(param$MR),</v>
+      </c>
+      <c r="V42" s="12" t="str">
+        <f>"quote("&amp;V19&amp;"),"</f>
+        <v>quote(param$EMIGRATE),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="C43" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="D43" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="E43" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="F43" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="G43" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="H43" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="I43" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="J43" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="K43" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="L43" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="M43" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="N43" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="O43" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="P43" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="Q43" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="R43" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="S43" s="12" t="str">
+        <f t="shared" ref="S43:V45" si="34">S20&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="T43" s="12" t="str">
+        <f t="shared" si="34"/>
+        <v>1,</v>
+      </c>
+      <c r="U43" s="12" t="str">
+        <f t="shared" si="34"/>
+        <v>0,</v>
+      </c>
+      <c r="V43" s="12" t="str">
+        <f t="shared" si="34"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="C44" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="D44" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="E44" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="F44" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="G44" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="H44" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="I44" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="J44" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="K44" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="L44" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="M44" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="N44" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="O44" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="P44" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="Q44" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="R44" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="S44" s="12" t="str">
+        <f t="shared" si="34"/>
+        <v>0,</v>
+      </c>
+      <c r="T44" s="12" t="str">
+        <f t="shared" si="34"/>
+        <v>0,</v>
+      </c>
+      <c r="U44" s="12" t="str">
+        <f t="shared" si="34"/>
+        <v>1,</v>
+      </c>
+      <c r="V44" s="12" t="str">
+        <f t="shared" si="34"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="C45" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="D45" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="E45" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="F45" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="G45" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="H45" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="I45" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="J45" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="K45" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="L45" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="M45" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="N45" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="O45" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="P45" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="Q45" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="R45" s="12" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+      <c r="S45" s="12" t="str">
+        <f t="shared" si="34"/>
+        <v>0,</v>
+      </c>
+      <c r="T45" s="12" t="str">
+        <f t="shared" si="34"/>
+        <v>0,</v>
+      </c>
+      <c r="U45" s="12" t="str">
+        <f t="shared" si="34"/>
+        <v>0,</v>
+      </c>
+      <c r="V45" s="12" t="str">
+        <f t="shared" si="34"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B47" s="12" t="str">
+        <f>CHAR(34)&amp;B1&amp;CHAR(34)&amp;","</f>
+        <v>"p.sus",</v>
+      </c>
+      <c r="C47" s="12" t="str">
+        <f t="shared" ref="C47:V47" si="35">CHAR(34)&amp;C1&amp;CHAR(34)&amp;","</f>
+        <v>"p.sus.fp",</v>
+      </c>
+      <c r="D47" s="12" t="str">
+        <f t="shared" si="35"/>
+        <v>"p.sus.fp.a",</v>
+      </c>
+      <c r="E47" s="12" t="str">
+        <f t="shared" si="35"/>
+        <v>"p.sus.fp.t",</v>
+      </c>
+      <c r="F47" s="12" t="str">
+        <f t="shared" si="35"/>
+        <v>"p.sus.fp.t.sae",</v>
+      </c>
+      <c r="G47" s="12" t="str">
+        <f t="shared" si="35"/>
+        <v>"p.sus.fp.sae.death",</v>
+      </c>
+      <c r="H47" s="12" t="str">
+        <f t="shared" si="35"/>
+        <v>"p.sus.fp.tc",</v>
+      </c>
+      <c r="I47" s="12" t="str">
+        <f t="shared" si="35"/>
+        <v>"p.sus.nt",</v>
+      </c>
+      <c r="J47" s="12" t="str">
+        <f t="shared" si="35"/>
+        <v>"p.ltbi",</v>
+      </c>
+      <c r="K47" s="12" t="str">
+        <f t="shared" si="35"/>
+        <v>"p.ltbi.tp",</v>
+      </c>
+      <c r="L47" s="12" t="str">
+        <f t="shared" si="35"/>
+        <v>"p.ltbi.tp.a",</v>
+      </c>
+      <c r="M47" s="12" t="str">
+        <f t="shared" si="35"/>
+        <v>"p.ltbi.tp.t",</v>
+      </c>
+      <c r="N47" s="12" t="str">
+        <f t="shared" si="35"/>
+        <v>"p.ltbi.tp.t.sae",</v>
+      </c>
+      <c r="O47" s="12" t="str">
+        <f t="shared" si="35"/>
+        <v>"p.ltbi.tp.sae.death",</v>
+      </c>
+      <c r="P47" s="12" t="str">
+        <f t="shared" si="35"/>
+        <v>"p.ltbi.tp.tc",</v>
+      </c>
+      <c r="Q47" s="12" t="str">
+        <f t="shared" si="35"/>
+        <v>"p.ltbi.nt",</v>
+      </c>
+      <c r="R47" s="12" t="str">
+        <f t="shared" si="35"/>
+        <v>"p.tb",</v>
+      </c>
+      <c r="S47" s="12" t="str">
+        <f t="shared" si="35"/>
+        <v>"p.tbr",</v>
+      </c>
+      <c r="T47" s="12" t="str">
+        <f t="shared" si="35"/>
+        <v>"p.tb.death",</v>
+      </c>
+      <c r="U47" s="12" t="str">
+        <f t="shared" si="35"/>
+        <v>"p.death",</v>
+      </c>
+      <c r="V47" s="12" t="str">
+        <f t="shared" si="35"/>
+        <v>"p.emigrate",</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Data dictionary KD.xlsx
+++ b/Data/Data dictionary KD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="45" windowWidth="14910" windowHeight="14130" activeTab="2"/>
+    <workbookView xWindow="60" yWindow="45" windowWidth="14910" windowHeight="14130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data key" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="67">
   <si>
     <t>p.sus</t>
   </si>
@@ -213,7 +213,10 @@
     <t>param$EMIGRATE</t>
   </si>
   <si>
-    <t>param$RR*TBDURINGFOLLOWUP</t>
+    <t>param$TBDURINGFOLLOWUP</t>
+  </si>
+  <si>
+    <t>param$TREATR</t>
   </si>
 </sst>
 </file>
@@ -554,7 +557,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -732,13 +735,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25:V45"/>
+      <selection pane="bottomRight" activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +761,7 @@
     <col min="13" max="13" width="17.140625" customWidth="1"/>
     <col min="14" max="14" width="14.140625" customWidth="1"/>
     <col min="15" max="15" width="21.42578125" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" customWidth="1"/>
     <col min="17" max="17" width="29.140625" customWidth="1"/>
     <col min="18" max="18" width="37.85546875" customWidth="1"/>
     <col min="19" max="19" width="13.42578125" customWidth="1"/>
@@ -767,7 +770,7 @@
     <col min="22" max="22" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -832,7 +835,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -899,8 +902,11 @@
       <c r="V2" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -969,8 +975,11 @@
       <c r="V3" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1039,8 +1048,11 @@
       <c r="V4" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1120,11 @@
       <c r="V5" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X5" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1178,8 +1193,11 @@
       <c r="V6" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X6" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1246,8 +1264,11 @@
       <c r="V7" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X7" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1314,8 +1335,11 @@
       <c r="V8" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X8" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1382,8 +1406,11 @@
       <c r="V9" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X9" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1450,8 +1477,11 @@
       <c r="V10" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X10" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1518,8 +1548,11 @@
       <c r="V11" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X11" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1586,8 +1619,11 @@
       <c r="V12" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X12" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1633,8 +1669,8 @@
       <c r="O13">
         <v>0</v>
       </c>
-      <c r="P13">
-        <v>0</v>
+      <c r="P13" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>56</v>
@@ -1654,8 +1690,11 @@
       <c r="V13" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X13" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1722,8 +1761,11 @@
       <c r="V14" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X14" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1790,8 +1832,11 @@
       <c r="V15" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X15" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1858,8 +1903,11 @@
       <c r="V16" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X16" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1926,8 +1974,11 @@
       <c r="V17" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1995,8 +2046,11 @@
       <c r="V18" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X18" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -2063,8 +2117,11 @@
       <c r="V19" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X19" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -2131,8 +2188,11 @@
       <c r="V20" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X20" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2199,8 +2259,11 @@
       <c r="V21" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X21" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>63</v>
       </c>
@@ -2267,13 +2330,16 @@
       <c r="V22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X22" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B25" t="str">
         <f>B2&amp;","</f>
         <v>0,</v>
@@ -2358,8 +2424,11 @@
         <f t="shared" ref="V25" si="5">V2&amp;","</f>
         <v>0,</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f t="shared" ref="B26:R26" si="6">B3&amp;","</f>
         <v>0,</v>
@@ -2444,8 +2513,11 @@
         <f t="shared" ref="V26" si="8">V3&amp;","</f>
         <v>0,</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
         <f t="shared" ref="B27:R27" si="9">B4&amp;","</f>
         <v>0,</v>
@@ -2530,8 +2602,11 @@
         <f t="shared" ref="V27" si="11">V4&amp;","</f>
         <v>0,</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
         <f t="shared" ref="B28:R28" si="12">B5&amp;","</f>
         <v>0,</v>
@@ -2616,8 +2691,11 @@
         <f t="shared" ref="V28" si="14">V5&amp;","</f>
         <v>0,</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X28" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B29" t="str">
         <f t="shared" ref="B29:R29" si="15">B6&amp;","</f>
         <v>0,</v>
@@ -2702,8 +2780,11 @@
         <f t="shared" ref="V29" si="17">V6&amp;","</f>
         <v>0,</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X29" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B30" t="str">
         <f t="shared" ref="B30:R30" si="18">B7&amp;","</f>
         <v>0,</v>
@@ -2788,8 +2869,11 @@
         <f t="shared" ref="V30" si="20">V7&amp;","</f>
         <v>0,</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X30" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B31" t="str">
         <f t="shared" ref="B31:R31" si="21">B8&amp;","</f>
         <v>0,</v>
@@ -2874,8 +2958,11 @@
         <f>"quote("&amp;V8&amp;"),"</f>
         <v>quote(param$EMIGRATE),</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X31" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B32" t="str">
         <f t="shared" ref="B32:R32" si="23">B9&amp;","</f>
         <v>0,</v>
@@ -2960,8 +3047,11 @@
         <f>"quote("&amp;V9&amp;"),"</f>
         <v>quote(param$EMIGRATE),</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="X32" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" t="str">
         <f t="shared" ref="B33:R33" si="25">B10&amp;","</f>
         <v>0,</v>
@@ -3046,8 +3136,11 @@
         <f t="shared" ref="V33" si="27">V10&amp;","</f>
         <v>0,</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="X33" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" t="str">
         <f t="shared" ref="B34:R34" si="28">B11&amp;","</f>
         <v>0,</v>
@@ -3132,8 +3225,11 @@
         <f t="shared" ref="V34" si="30">V11&amp;","</f>
         <v>0,</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="X34" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B35" t="str">
         <f t="shared" ref="B35:P35" si="31">B12&amp;","</f>
         <v>0,</v>
@@ -3200,7 +3296,7 @@
       </c>
       <c r="R35" s="12" t="str">
         <f>"quote("&amp;R12&amp;"),"</f>
-        <v>quote(param$RR*TBDURINGFOLLOWUP),</v>
+        <v>quote(param$TBDURINGFOLLOWUP),</v>
       </c>
       <c r="S35" s="12" t="str">
         <f t="shared" ref="S35:U35" si="32">S12&amp;","</f>
@@ -3218,8 +3314,11 @@
         <f t="shared" ref="V35" si="33">V12&amp;","</f>
         <v>0,</v>
       </c>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="X35" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B36" t="str">
         <f t="shared" ref="B36:R36" si="34">B13&amp;","</f>
         <v>0,</v>
@@ -3276,9 +3375,9 @@
         <f t="shared" si="34"/>
         <v>0,</v>
       </c>
-      <c r="P36" t="str">
-        <f t="shared" si="34"/>
-        <v>0,</v>
+      <c r="P36" s="12" t="str">
+        <f>"quote("&amp;P13&amp;"),"</f>
+        <v>quote(param$TREATR),</v>
       </c>
       <c r="Q36" s="12" t="str">
         <f>"quote("&amp;Q13&amp;"),"</f>
@@ -3304,8 +3403,11 @@
         <f t="shared" ref="V36" si="36">V13&amp;","</f>
         <v>0,</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="X36" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B37" t="str">
         <f t="shared" ref="B37:R37" si="37">B14&amp;","</f>
         <v>0,</v>
@@ -3390,8 +3492,11 @@
         <f t="shared" ref="V37" si="39">V14&amp;","</f>
         <v>0,</v>
       </c>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="X37" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B38" t="str">
         <f t="shared" ref="B38:R38" si="40">B15&amp;","</f>
         <v>0,</v>
@@ -3476,8 +3581,11 @@
         <f t="shared" ref="V38" si="42">V15&amp;","</f>
         <v>0,</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="X38" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B39" t="str">
         <f t="shared" ref="B39:R39" si="43">B16&amp;","</f>
         <v>0,</v>
@@ -3562,8 +3670,11 @@
         <f>"quote("&amp;V16&amp;"),"</f>
         <v>quote(param$EMIGRATE),</v>
       </c>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="X39" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B40" t="str">
         <f t="shared" ref="B40:P40" si="45">B17&amp;","</f>
         <v>0,</v>
@@ -3633,7 +3744,7 @@
         <v>quote(param$RR),</v>
       </c>
       <c r="S40" s="12" t="str">
-        <f t="shared" ref="S40:U40" si="46">S17&amp;","</f>
+        <f t="shared" ref="S40:T40" si="46">S17&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T40" s="12" t="str">
@@ -3648,8 +3759,11 @@
         <f>"quote("&amp;V17&amp;"),"</f>
         <v>quote(param$EMIGRATE),</v>
       </c>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="X40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B41" t="str">
         <f t="shared" ref="B41:R41" si="47">B18&amp;","</f>
         <v>0,</v>
@@ -3734,8 +3848,11 @@
         <f t="shared" ref="V41" si="49">V18&amp;","</f>
         <v>0,</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="X41" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="str">
         <f t="shared" ref="B42:R42" si="50">B19&amp;","</f>
         <v>0,</v>
@@ -3820,8 +3937,11 @@
         <f>"quote("&amp;V19&amp;"),"</f>
         <v>quote(param$EMIGRATE),</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="X42" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="str">
         <f t="shared" ref="B43:R43" si="52">B20&amp;","</f>
         <v>0,</v>
@@ -3906,8 +4026,11 @@
         <f t="shared" ref="V43" si="54">V20&amp;","</f>
         <v>0,</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X43" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="str">
         <f t="shared" ref="B44:U44" si="55">B21&amp;","</f>
         <v>0,</v>
@@ -3992,8 +4115,11 @@
         <f t="shared" ref="V44" si="56">V21&amp;","</f>
         <v>0,</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X44" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="str">
         <f t="shared" ref="B45:U45" si="57">B22&amp;","</f>
         <v>0,</v>
@@ -4078,8 +4204,11 @@
         <f t="shared" ref="V45" si="58">V22&amp;","</f>
         <v>1,</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="X45" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -4101,7 +4230,7 @@
       <c r="T46" s="12"/>
       <c r="U46" s="12"/>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B47" t="str">
         <f>CHAR(34)&amp;B1&amp;CHAR(34)&amp;","</f>
         <v>"p.sus",</v>
@@ -4187,28 +4316,93 @@
         <v>"p.emigrate",</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B49" s="12">
+        <v>1</v>
+      </c>
+      <c r="C49" s="12">
+        <v>2</v>
+      </c>
+      <c r="D49" s="12">
+        <v>3</v>
+      </c>
+      <c r="E49" s="12">
+        <v>4</v>
+      </c>
+      <c r="F49" s="12">
+        <v>5</v>
+      </c>
+      <c r="G49" s="12">
+        <v>6</v>
+      </c>
+      <c r="H49" s="12">
+        <v>7</v>
+      </c>
+      <c r="I49" s="12">
+        <v>8</v>
+      </c>
+      <c r="J49" s="12">
+        <v>9</v>
+      </c>
+      <c r="K49" s="12">
+        <v>10</v>
+      </c>
+      <c r="L49" s="12">
+        <v>11</v>
+      </c>
+      <c r="M49" s="12">
+        <v>12</v>
+      </c>
+      <c r="N49" s="12">
+        <v>13</v>
+      </c>
+      <c r="O49" s="12">
+        <v>14</v>
+      </c>
+      <c r="P49" s="12">
+        <v>15</v>
+      </c>
+      <c r="Q49" s="12">
+        <v>16</v>
+      </c>
+      <c r="R49" s="12">
+        <v>17</v>
+      </c>
+      <c r="S49" s="12">
+        <v>18</v>
+      </c>
+      <c r="T49" s="12">
+        <v>19</v>
+      </c>
+      <c r="U49" s="12">
+        <v>20</v>
+      </c>
+      <c r="V49" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C51" s="12"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C52" s="12"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C53" s="12"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C54" s="12"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C55" s="12"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C56" s="12"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C57" s="12"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C58" s="12"/>
     </row>
   </sheetData>
@@ -4219,13 +4413,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T44" sqref="T44"/>
+      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7716,6 +7910,71 @@
         <v>"p.emigrate",</v>
       </c>
     </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B49" s="12">
+        <v>1</v>
+      </c>
+      <c r="C49" s="12">
+        <v>2</v>
+      </c>
+      <c r="D49" s="12">
+        <v>3</v>
+      </c>
+      <c r="E49" s="12">
+        <v>4</v>
+      </c>
+      <c r="F49" s="12">
+        <v>5</v>
+      </c>
+      <c r="G49" s="12">
+        <v>6</v>
+      </c>
+      <c r="H49" s="12">
+        <v>7</v>
+      </c>
+      <c r="I49" s="12">
+        <v>8</v>
+      </c>
+      <c r="J49" s="12">
+        <v>9</v>
+      </c>
+      <c r="K49" s="12">
+        <v>10</v>
+      </c>
+      <c r="L49" s="12">
+        <v>11</v>
+      </c>
+      <c r="M49" s="12">
+        <v>12</v>
+      </c>
+      <c r="N49" s="12">
+        <v>13</v>
+      </c>
+      <c r="O49" s="12">
+        <v>14</v>
+      </c>
+      <c r="P49" s="12">
+        <v>15</v>
+      </c>
+      <c r="Q49" s="12">
+        <v>16</v>
+      </c>
+      <c r="R49" s="12">
+        <v>17</v>
+      </c>
+      <c r="S49" s="12">
+        <v>18</v>
+      </c>
+      <c r="T49" s="12">
+        <v>19</v>
+      </c>
+      <c r="U49" s="12">
+        <v>20</v>
+      </c>
+      <c r="V49" s="12">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Data dictionary KD.xlsx
+++ b/Data/Data dictionary KD.xlsx
@@ -557,7 +557,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
